--- a/0_0_Data/2_Processed_Data/1_rt_GVA_series/yoy_rt_GVA_data.xlsx
+++ b/0_0_Data/2_Processed_Data/1_rt_GVA_series/yoy_rt_GVA_data.xlsx
@@ -380,13 +380,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CC36"/>
+  <dimension ref="A1:CD36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:81">
+    <row r="1" spans="1:82">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,18 +630,21 @@
       <c r="CC1" s="2">
         <v>45891</v>
       </c>
+      <c r="CD1" s="2">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:81">
+    <row r="2" spans="1:82">
       <c r="A2" s="2">
         <v>33603</v>
       </c>
     </row>
-    <row r="3" spans="1:81">
+    <row r="3" spans="1:82">
       <c r="A3" s="2">
         <v>33969</v>
       </c>
     </row>
-    <row r="4" spans="1:81">
+    <row r="4" spans="1:82">
       <c r="A4" s="2">
         <v>34334</v>
       </c>
@@ -885,8 +888,11 @@
       <c r="CC4">
         <v>-1.207568364517142</v>
       </c>
+      <c r="CD4">
+        <v>-1.214503843588766</v>
+      </c>
     </row>
-    <row r="5" spans="1:81">
+    <row r="5" spans="1:82">
       <c r="A5" s="2">
         <v>34699</v>
       </c>
@@ -1130,8 +1136,11 @@
       <c r="CC5">
         <v>2.316739508936538</v>
       </c>
+      <c r="CD5">
+        <v>2.320292790391942</v>
+      </c>
     </row>
-    <row r="6" spans="1:81">
+    <row r="6" spans="1:82">
       <c r="A6" s="2">
         <v>35064</v>
       </c>
@@ -1375,8 +1384,11 @@
       <c r="CC6">
         <v>1.889216877930155</v>
       </c>
+      <c r="CD6">
+        <v>1.885678566467552</v>
+      </c>
     </row>
-    <row r="7" spans="1:81">
+    <row r="7" spans="1:82">
       <c r="A7" s="2">
         <v>35430</v>
       </c>
@@ -1620,8 +1632,11 @@
       <c r="CC7">
         <v>0.845291250553859</v>
       </c>
+      <c r="CD7">
+        <v>0.8418828180919435</v>
+      </c>
     </row>
-    <row r="8" spans="1:81">
+    <row r="8" spans="1:82">
       <c r="A8" s="2">
         <v>35795</v>
       </c>
@@ -1865,8 +1880,11 @@
       <c r="CC8">
         <v>2.152972589312885</v>
       </c>
+      <c r="CD8">
+        <v>2.156425336307732</v>
+      </c>
     </row>
-    <row r="9" spans="1:81">
+    <row r="9" spans="1:82">
       <c r="A9" s="2">
         <v>36160</v>
       </c>
@@ -2110,8 +2128,11 @@
       <c r="CC9">
         <v>2.001720487030179</v>
       </c>
+      <c r="CD9">
+        <v>2.008337744838529</v>
+      </c>
     </row>
-    <row r="10" spans="1:81">
+    <row r="10" spans="1:82">
       <c r="A10" s="2">
         <v>36525</v>
       </c>
@@ -2355,8 +2376,11 @@
       <c r="CC10">
         <v>1.774303415615175</v>
       </c>
+      <c r="CD10">
+        <v>1.767701339560834</v>
+      </c>
     </row>
-    <row r="11" spans="1:81">
+    <row r="11" spans="1:82">
       <c r="A11" s="2">
         <v>36891</v>
       </c>
@@ -2600,8 +2624,11 @@
       <c r="CC11">
         <v>3.35925548189695</v>
       </c>
+      <c r="CD11">
+        <v>3.356068332483475</v>
+      </c>
     </row>
-    <row r="12" spans="1:81">
+    <row r="12" spans="1:82">
       <c r="A12" s="2">
         <v>37256</v>
       </c>
@@ -2845,8 +2872,11 @@
       <c r="CC12">
         <v>2.09374036386063</v>
       </c>
+      <c r="CD12">
+        <v>2.096888587375512</v>
+      </c>
     </row>
-    <row r="13" spans="1:81">
+    <row r="13" spans="1:82">
       <c r="A13" s="2">
         <v>37621</v>
       </c>
@@ -3090,8 +3120,11 @@
       <c r="CC13">
         <v>0.0906098039807901</v>
       </c>
+      <c r="CD13">
+        <v>0.0906098039807901</v>
+      </c>
     </row>
-    <row r="14" spans="1:81">
+    <row r="14" spans="1:82">
       <c r="A14" s="2">
         <v>37986</v>
       </c>
@@ -3335,8 +3368,11 @@
       <c r="CC14">
         <v>-0.537131476508057</v>
       </c>
+      <c r="CD14">
+        <v>-0.5371314765080459</v>
+      </c>
     </row>
-    <row r="15" spans="1:81">
+    <row r="15" spans="1:82">
       <c r="A15" s="2">
         <v>38352</v>
       </c>
@@ -3580,8 +3616,11 @@
       <c r="CC15">
         <v>1.043657656017705</v>
       </c>
+      <c r="CD15">
+        <v>1.043657656017705</v>
+      </c>
     </row>
-    <row r="16" spans="1:81">
+    <row r="16" spans="1:82">
       <c r="A16" s="2">
         <v>38717</v>
       </c>
@@ -3816,8 +3855,11 @@
       <c r="CC16">
         <v>1.074913676625133</v>
       </c>
+      <c r="CD16">
+        <v>1.074913676625111</v>
+      </c>
     </row>
-    <row r="17" spans="1:81">
+    <row r="17" spans="1:82">
       <c r="A17" s="2">
         <v>39082</v>
       </c>
@@ -4040,8 +4082,11 @@
       <c r="CC17">
         <v>4.146986305439215</v>
       </c>
+      <c r="CD17">
+        <v>4.14401568487659</v>
+      </c>
     </row>
-    <row r="18" spans="1:81">
+    <row r="18" spans="1:82">
       <c r="A18" s="2">
         <v>39447</v>
       </c>
@@ -4252,8 +4297,11 @@
       <c r="CC18">
         <v>3.459881913346075</v>
       </c>
+      <c r="CD18">
+        <v>3.462833019567579</v>
+      </c>
     </row>
-    <row r="19" spans="1:81">
+    <row r="19" spans="1:82">
       <c r="A19" s="2">
         <v>39813</v>
       </c>
@@ -4452,8 +4500,11 @@
       <c r="CC19">
         <v>0.6671812968681134</v>
       </c>
+      <c r="CD19">
+        <v>0.6671812968680912</v>
+      </c>
     </row>
-    <row r="20" spans="1:81">
+    <row r="20" spans="1:82">
       <c r="A20" s="2">
         <v>40178</v>
       </c>
@@ -4640,8 +4691,11 @@
       <c r="CC20">
         <v>-6.164758722681729</v>
       </c>
+      <c r="CD20">
+        <v>-6.164758722681718</v>
+      </c>
     </row>
-    <row r="21" spans="1:81">
+    <row r="21" spans="1:82">
       <c r="A21" s="2">
         <v>40543</v>
       </c>
@@ -4816,8 +4870,11 @@
       <c r="CC21">
         <v>4.436272363774307</v>
       </c>
+      <c r="CD21">
+        <v>4.439190964013684</v>
+      </c>
     </row>
-    <row r="22" spans="1:81">
+    <row r="22" spans="1:82">
       <c r="A22" s="2">
         <v>40908</v>
       </c>
@@ -4983,8 +5040,11 @@
       <c r="CC22">
         <v>3.834222955034527</v>
       </c>
+      <c r="CD22">
+        <v>3.831321260898735</v>
+      </c>
     </row>
-    <row r="23" spans="1:81">
+    <row r="23" spans="1:82">
       <c r="A23" s="2">
         <v>41274</v>
       </c>
@@ -5138,8 +5198,11 @@
       <c r="CC23">
         <v>0.7024626564392511</v>
       </c>
+      <c r="CD23">
+        <v>0.7051540842417214</v>
+      </c>
     </row>
-    <row r="24" spans="1:81">
+    <row r="24" spans="1:82">
       <c r="A24" s="2">
         <v>41639</v>
       </c>
@@ -5281,8 +5344,11 @@
       <c r="CC24">
         <v>0.6066923241394129</v>
       </c>
+      <c r="CD24">
+        <v>0.6040035278082057</v>
+      </c>
     </row>
-    <row r="25" spans="1:81">
+    <row r="25" spans="1:82">
       <c r="A25" s="2">
         <v>42004</v>
       </c>
@@ -5415,8 +5481,11 @@
       <c r="CC25">
         <v>2.231490582578455</v>
       </c>
+      <c r="CD25">
+        <v>2.231490582578455</v>
+      </c>
     </row>
-    <row r="26" spans="1:81">
+    <row r="26" spans="1:82">
       <c r="A26" s="2">
         <v>42369</v>
       </c>
@@ -5537,8 +5606,11 @@
       <c r="CC26">
         <v>1.164150404074515</v>
       </c>
+      <c r="CD26">
+        <v>1.166748954083641</v>
+      </c>
     </row>
-    <row r="27" spans="1:81">
+    <row r="27" spans="1:82">
       <c r="A27" s="2">
         <v>42735</v>
       </c>
@@ -5647,8 +5719,11 @@
       <c r="CC27">
         <v>2.214173794662355</v>
       </c>
+      <c r="CD27">
+        <v>2.21154834069659</v>
+      </c>
     </row>
-    <row r="28" spans="1:81">
+    <row r="28" spans="1:82">
       <c r="A28" s="2">
         <v>43100</v>
       </c>
@@ -5745,8 +5820,11 @@
       <c r="CC28">
         <v>3.231724172593187</v>
       </c>
+      <c r="CD28">
+        <v>3.234237177393018</v>
+      </c>
     </row>
-    <row r="29" spans="1:81">
+    <row r="29" spans="1:82">
       <c r="A29" s="2">
         <v>43465</v>
       </c>
@@ -5831,8 +5909,11 @@
       <c r="CC29">
         <v>1.234207259183506</v>
       </c>
+      <c r="CD29">
+        <v>1.234177215189858</v>
+      </c>
     </row>
-    <row r="30" spans="1:81">
+    <row r="30" spans="1:82">
       <c r="A30" s="2">
         <v>43830</v>
       </c>
@@ -5905,8 +5986,11 @@
       <c r="CC30">
         <v>0.7238012792766702</v>
       </c>
+      <c r="CD30">
+        <v>0.7261884723591683</v>
+      </c>
     </row>
-    <row r="31" spans="1:81">
+    <row r="31" spans="1:82">
       <c r="A31" s="2">
         <v>44196</v>
       </c>
@@ -5967,8 +6051,11 @@
       <c r="CC31">
         <v>-4.715066727146844</v>
       </c>
+      <c r="CD31">
+        <v>-4.719616128339188</v>
+      </c>
     </row>
-    <row r="32" spans="1:81">
+    <row r="32" spans="1:82">
       <c r="A32" s="2">
         <v>44561</v>
       </c>
@@ -6017,8 +6104,11 @@
       <c r="CC32">
         <v>4.008819402685893</v>
       </c>
+      <c r="CD32">
+        <v>4.008819402685915</v>
+      </c>
     </row>
-    <row r="33" spans="1:81">
+    <row r="33" spans="1:82">
       <c r="A33" s="2">
         <v>44926</v>
       </c>
@@ -6055,8 +6145,11 @@
       <c r="CC33">
         <v>2.252360763152828</v>
       </c>
+      <c r="CD33">
+        <v>2.252360763152805</v>
+      </c>
     </row>
-    <row r="34" spans="1:81">
+    <row r="34" spans="1:82">
       <c r="A34" s="2">
         <v>45291</v>
       </c>
@@ -6081,8 +6174,11 @@
       <c r="CC34">
         <v>-0.3109760407095874</v>
       </c>
+      <c r="CD34">
+        <v>-0.313331919805826</v>
+      </c>
     </row>
-    <row r="35" spans="1:81">
+    <row r="35" spans="1:82">
       <c r="A35" s="2">
         <v>45657</v>
       </c>
@@ -6095,8 +6191,11 @@
       <c r="CC35">
         <v>-0.5506321635353917</v>
       </c>
+      <c r="CD35">
+        <v>-0.5482818925178212</v>
+      </c>
     </row>
-    <row r="36" spans="1:81">
+    <row r="36" spans="1:82">
       <c r="A36" s="2">
         <v>46022</v>
       </c>
